--- a/docentes/Barrientos Ortiz Yuliana Isabel - Estadisticos 20242.xlsx
+++ b/docentes/Barrientos Ortiz Yuliana Isabel - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
   <si>
     <t>Mat</t>
   </si>
@@ -95,48 +95,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DORANTES</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>JANNIHA YUVIETH</t>
-  </si>
-  <si>
-    <t>KEVIN RAUL</t>
   </si>
 </sst>
 </file>
@@ -621,16 +579,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>86.67</v>
+        <v>90</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -816,16 +774,19 @@
         <v>36</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>36</v>
       </c>
-      <c r="E2">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -839,16 +800,19 @@
         <v>28</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>28</v>
       </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -862,16 +826,19 @@
         <v>23</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -885,16 +852,19 @@
         <v>30</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -908,16 +878,19 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -931,16 +904,19 @@
         <v>35</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>35</v>
       </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>9.4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -954,16 +930,19 @@
         <v>39</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>39</v>
       </c>
-      <c r="E8">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>8.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -977,16 +956,19 @@
         <v>28</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1000,16 +982,19 @@
         <v>25</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
@@ -1068,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G2">
-        <v>69.44</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1094,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>96.43000000000001</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1120,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>69.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1146,16 +1131,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>86.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1181,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1207,7 +1192,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1224,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G8">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1259,7 +1244,7 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1295,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1328,121 +1313,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>24330051920144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24330051920255</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>23330051920224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24330051920388</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>22330051920425</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
